--- a/reference/static/files/container_code.xlsx
+++ b/reference/static/files/container_code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitBook\ECS\ecs@support\Contents_Lab\ECS\uploads_ecs\KM\reference\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Git\GitHub\ecs-support\KM\reference\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D0DDA-4233-4F39-A008-7A2966DB9FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C301215-A44B-4162-A756-8E3E37486BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F137ACE5-7827-459B-B9AE-2F2B52AA52F2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="223">
   <si>
     <t>ขนาดและประเภทตู้สินค้า (Container Size and Type Code)</t>
   </si>
@@ -42,105 +42,54 @@
     <t>รายละเอียดตู้สินค้า</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>G0GENERAL PURPOSE CONT. (General - Openings at one or both ends)</t>
-  </si>
-  <si>
     <t>20x8x8</t>
   </si>
   <si>
     <t>20G0</t>
   </si>
   <si>
-    <t>GENERAL PURPOSE CONT. (General - Openings at one or both ends)</t>
-  </si>
-  <si>
     <t>20G1</t>
   </si>
   <si>
-    <t>GENERAL PURPOSE CONT. (General - Passive vents at upper part of cargo space)</t>
-  </si>
-  <si>
     <t>20H0</t>
   </si>
   <si>
-    <t>INSULATED CONTAINER(Refrigerated or heated with removable equipment located externally;heat transfer coefficient K=0.4W/M2.K)</t>
-  </si>
-  <si>
     <t>20H1</t>
   </si>
   <si>
-    <t>port hole reefer container</t>
-  </si>
-  <si>
     <t>20P1</t>
   </si>
   <si>
-    <t>FLAT (FIXED ENDS) (Flat or Bolter - Two complete and fixed ends)</t>
-  </si>
-  <si>
     <t>20T0</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Non dangerous liquids, minimum pressure 0.45 bar)</t>
-  </si>
-  <si>
     <t>20T1</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Non dangerous liquids, minimum pressure 1.50 bar)</t>
-  </si>
-  <si>
     <t>20T2</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Non dangerous liquids, minimum pressure 2.65 bar)</t>
-  </si>
-  <si>
     <t>20T3</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Dangerous liquids, minimum pressure 1.50 bar)</t>
-  </si>
-  <si>
     <t>20T4</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Dangerous liquids, minimum pressure 2.65 bar)</t>
-  </si>
-  <si>
     <t>20T5</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Dangerous liquids, minimum pressure 4.00 bar)</t>
-  </si>
-  <si>
     <t>20T6</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Dangerous liquids, minimum pressure 6.00 bar)</t>
-  </si>
-  <si>
     <t>20T7</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Gases, minimum pressure 9.10 bar)</t>
-  </si>
-  <si>
     <t>20T8</t>
   </si>
   <si>
-    <t>TANK CONTAINER (Tank - Gases, minimum pressure 22.00 bar)</t>
-  </si>
-  <si>
     <t>22B0</t>
   </si>
   <si>
-    <t>BULK CONTAINER (Bulk - Closed)</t>
-  </si>
-  <si>
     <t>20x8.6x8</t>
   </si>
   <si>
@@ -153,15 +102,9 @@
     <t>22G2</t>
   </si>
   <si>
-    <t>GENERAL PURPOSE CONT. (Opening(s) at one or both ends plus ?full? opening(s) on one or both sides)</t>
-  </si>
-  <si>
     <t>22G9</t>
   </si>
   <si>
-    <t>GENERAL PURPOSE CONT.(Unventilated general purpose container/Dry Container)</t>
-  </si>
-  <si>
     <t>22GB</t>
   </si>
   <si>
@@ -174,42 +117,24 @@
     <t>22H2</t>
   </si>
   <si>
-    <t>thermal insulated external container</t>
-  </si>
-  <si>
     <t>22K2</t>
   </si>
   <si>
-    <t>Minimum pressure 255 kilopascal (2.65 bar, 38.43 pounds per square inch)</t>
-  </si>
-  <si>
     <t>22KD</t>
   </si>
   <si>
-    <t>Pressurized tank container: Liquid tank dangerous goods&gt;2,65 barc and&lt;= 10 barc pressure</t>
-  </si>
-  <si>
     <t>22P1</t>
   </si>
   <si>
     <t>22P2</t>
   </si>
   <si>
-    <t>flat with fixed corner posts only</t>
-  </si>
-  <si>
     <t>22P3</t>
   </si>
   <si>
-    <t>FLAT (COLLAPSIBLE) (Flat or Bolter - Folding complete end structure)</t>
-  </si>
-  <si>
     <t>22P5</t>
   </si>
   <si>
-    <t>open sided container</t>
-  </si>
-  <si>
     <t>22P7</t>
   </si>
   <si>
@@ -231,15 +156,9 @@
     <t>22R0</t>
   </si>
   <si>
-    <t>integral reefer container</t>
-  </si>
-  <si>
     <t>22R1</t>
   </si>
   <si>
-    <t>REEFER CONTAINER (Integral Reefer - Mechanically refrigerated and heated)</t>
-  </si>
-  <si>
     <t>22R7</t>
   </si>
   <si>
@@ -252,15 +171,9 @@
     <t>REEFER CONT.(NO FOOD)</t>
   </si>
   <si>
-    <t>22RO</t>
-  </si>
-  <si>
     <t>22S1</t>
   </si>
   <si>
-    <t>NAMED CARGO CONTAINER (Automobile carrier)</t>
-  </si>
-  <si>
     <t>22T0</t>
   </si>
   <si>
@@ -291,15 +204,9 @@
     <t>22U0</t>
   </si>
   <si>
-    <t>open top container</t>
-  </si>
-  <si>
     <t>22U1</t>
   </si>
   <si>
-    <t>OPEN TOP CONTAINER (Open Top - Idem + removable top members in end frames)</t>
-  </si>
-  <si>
     <t>22U6</t>
   </si>
   <si>
@@ -309,15 +216,9 @@
     <t>22V0</t>
   </si>
   <si>
-    <t>VENTILATED CONTAINER (Fantainer - Non-mechanical, vents at lower and upper parts of cargo space)</t>
-  </si>
-  <si>
     <t>22V2</t>
   </si>
   <si>
-    <t>VENTILATED CONTAINER (Fantainer - Mechanical ventilation system located internally)</t>
-  </si>
-  <si>
     <t>22V3</t>
   </si>
   <si>
@@ -327,36 +228,21 @@
     <t>25G0</t>
   </si>
   <si>
-    <t>GP-CONTAINER OVER-HEIGHT (General - Openings at one or both ends)</t>
-  </si>
-  <si>
     <t>20x9.6x8</t>
   </si>
   <si>
     <t>25G1</t>
   </si>
   <si>
-    <t>GP-CONTAINER OVER-HEIGHT (General - Passive vents at upper part of cargo space)</t>
-  </si>
-  <si>
     <t>25G2</t>
   </si>
   <si>
-    <t>Openings at one or both end(s), plus 'full' openings at one or both sides</t>
-  </si>
-  <si>
     <t>25R1</t>
   </si>
   <si>
-    <t>integral high cube reefer container (9,6)</t>
-  </si>
-  <si>
     <t>25U1</t>
   </si>
   <si>
-    <t>Open Top - Idem + removable top members in end frames</t>
-  </si>
-  <si>
     <t>26G0</t>
   </si>
   <si>
@@ -369,60 +255,36 @@
     <t>26T0</t>
   </si>
   <si>
-    <t>half height tank container</t>
-  </si>
-  <si>
     <t>28P0</t>
   </si>
   <si>
-    <t>platform flat</t>
-  </si>
-  <si>
     <t>20x4.3x8</t>
   </si>
   <si>
     <t>28T8</t>
   </si>
   <si>
-    <t>TANK FOR GAS (Tank - Gases, minimum pressure 22.00 bar)</t>
-  </si>
-  <si>
     <t>28U1</t>
   </si>
   <si>
-    <t>OPEN TOP (HALF HEIGHT) (Open Top - Idem + removable top members in end frames)</t>
-  </si>
-  <si>
     <t>28V0</t>
   </si>
   <si>
-    <t>VE-HALF-HEIGHT =1448 MM HEIGHT (Fantainer - Non-mechanical, vents at lower and upper parts of cargo space)</t>
-  </si>
-  <si>
     <t>29P0</t>
   </si>
   <si>
-    <t>PLATFORM (Flat or Bolter - Plain platform)</t>
-  </si>
-  <si>
     <t>20x&lt;=4x8</t>
   </si>
   <si>
     <t>2EG0</t>
   </si>
   <si>
-    <t>HIGH CUBE CONT. (WIDTH 2.5M) (General - Openings at one or both ends)</t>
-  </si>
-  <si>
     <t>20x9.6x(7.7&lt;x&lt;=8.2)</t>
   </si>
   <si>
     <t>42B0</t>
   </si>
   <si>
-    <t>dry bulk container</t>
-  </si>
-  <si>
     <t>40x8.6x8</t>
   </si>
   <si>
@@ -435,18 +297,9 @@
     <t>42G9</t>
   </si>
   <si>
-    <t>Standard Dry</t>
-  </si>
-  <si>
-    <t>40x8.5</t>
-  </si>
-  <si>
     <t>42GP</t>
   </si>
   <si>
-    <t>General Purpose / Dry container</t>
-  </si>
-  <si>
     <t>42H0</t>
   </si>
   <si>
@@ -456,9 +309,6 @@
     <t>42P2</t>
   </si>
   <si>
-    <t>flat with corners posts only</t>
-  </si>
-  <si>
     <t>42P3</t>
   </si>
   <si>
@@ -486,9 +336,6 @@
     <t>42R3</t>
   </si>
   <si>
-    <t>REEFER CONT.(DIESEL GEN.) (Integral Reefer - Self-powered mechanically refrigerated and heated)</t>
-  </si>
-  <si>
     <t>42R9</t>
   </si>
   <si>
@@ -519,48 +366,30 @@
     <t>42V0</t>
   </si>
   <si>
-    <t>highly ventilated container</t>
-  </si>
-  <si>
     <t>42V2</t>
   </si>
   <si>
-    <t>General purpose container with ventilation</t>
-  </si>
-  <si>
     <t>4310</t>
   </si>
   <si>
-    <t>Closed, Vented, Passive vents at up</t>
-  </si>
-  <si>
     <t>40x8.6X8</t>
   </si>
   <si>
     <t>45B3</t>
   </si>
   <si>
-    <t>BULK CONTAINER (Bulk - Horizontal discharge, test pressure 1.50 bar)</t>
-  </si>
-  <si>
     <t>40x9.6x8</t>
   </si>
   <si>
     <t>45G0</t>
   </si>
   <si>
-    <t>HIGH CUBE CONT. (General - Openings at one or both ends)</t>
-  </si>
-  <si>
     <t>45G1</t>
   </si>
   <si>
     <t>45P1</t>
   </si>
   <si>
-    <t>Platform with two complete, fixed end walls</t>
-  </si>
-  <si>
     <t>45P3</t>
   </si>
   <si>
@@ -570,9 +399,6 @@
     <t>45R1</t>
   </si>
   <si>
-    <t>REEFER HIGHCUBE CONTAINER (Integral Reefer - Mechanically refrigerated and heated)</t>
-  </si>
-  <si>
     <t>45R9</t>
   </si>
   <si>
@@ -588,18 +414,12 @@
     <t>46H0</t>
   </si>
   <si>
-    <t>INSULATED CONTAINER (Refrigerated or heated with removable equipment located externally; heat transfer coefficient K=0.4W/M2.</t>
-  </si>
-  <si>
     <t>40x&gt;9.6x8</t>
   </si>
   <si>
     <t>46P3</t>
   </si>
   <si>
-    <t>Platform with folding complete end walls</t>
-  </si>
-  <si>
     <t>40x9.6X13.6</t>
   </si>
   <si>
@@ -615,9 +435,6 @@
     <t>48U1</t>
   </si>
   <si>
-    <t>half height open top container</t>
-  </si>
-  <si>
     <t>49P0</t>
   </si>
   <si>
@@ -627,27 +444,18 @@
     <t>4CG0</t>
   </si>
   <si>
-    <t>GP CONTAINER (WIDTH 2.5 M) (General - Openings at one or both ends)</t>
-  </si>
-  <si>
     <t>40x8.6x(7.7&lt;x&lt;=8.2)</t>
   </si>
   <si>
     <t>4EG1</t>
   </si>
   <si>
-    <t>40 Foot High Cube Dry Container(Unventilated general purpose container)</t>
-  </si>
-  <si>
     <t>40x9.6x8.2</t>
   </si>
   <si>
     <t>L0G1</t>
   </si>
   <si>
-    <t>HIGH CUBE CONT. (General - Passive vents at upper part of cargo space)</t>
-  </si>
-  <si>
     <t>45x8x8</t>
   </si>
   <si>
@@ -660,9 +468,6 @@
     <t>L5G0</t>
   </si>
   <si>
-    <t>Openings at one or both end(s)</t>
-  </si>
-  <si>
     <t>45x9x8</t>
   </si>
   <si>
@@ -675,26 +480,230 @@
     <t>L5R1</t>
   </si>
   <si>
-    <t>High Cube Reefer Container (General - Thermal containers, refrigerated and heated-Mechanically refrigerated and heated)</t>
-  </si>
-  <si>
-    <t>Mech</t>
-  </si>
-  <si>
-    <t>anical ventilation installed in the container</t>
-  </si>
-  <si>
-    <t>zzzz</t>
-  </si>
-  <si>
-    <t>อุปกรณ์ขนย้ายพิเศษ</t>
+    <t>20R1</t>
+  </si>
+  <si>
+    <t>20x8</t>
+  </si>
+  <si>
+    <t>22K8</t>
+  </si>
+  <si>
+    <t>42G2</t>
+  </si>
+  <si>
+    <t>40x8x6</t>
+  </si>
+  <si>
+    <t>45UB</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE CONT. (GENERAL - OPENINGS AT ONE OR BOTH ENDS)</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE CONT. (GENERAL - PASSIVE VENTS AT UPPER PART OF CARGO SPACE)</t>
+  </si>
+  <si>
+    <t>INSULATED CONTAINER(REFRIGERATED OR HEATED WITH REMOVABLE EQUIPMENT LOCATED EXTERNALLY;HEAT TRANSFER COEFFICIENT K=0.4W/M2.K)</t>
+  </si>
+  <si>
+    <t>PORT HOLE REEFER CONTAINER</t>
+  </si>
+  <si>
+    <t>FLAT (FIXED ENDS) (FLAT OR BOLTER - TWO COMPLETE AND FIXED ENDS)</t>
+  </si>
+  <si>
+    <t>SELF-POWERED REFRIGERATED/HEATED, MECHANICALLY REFRIGERATED</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - NON DANGEROUS LIQUIDS, MINIMUM PRESSURE 0.45 BAR)</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - NON DANGEROUS LIQUIDS, MINIMUM PRESSURE 1.50 BAR)</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - NON DANGEROUS LIQUIDS, MINIMUM PRESSURE 2.65 BAR)</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - DANGEROUS LIQUIDS, MINIMUM PRESSURE 1.50 BAR)</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - DANGEROUS LIQUIDS, MINIMUM PRESSURE 2.65 BAR)</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - DANGEROUS LIQUIDS, MINIMUM PRESSURE 4.00 BAR)</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - DANGEROUS LIQUIDS, MINIMUM PRESSURE 6.00 BAR)</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - GASES, MINIMUM PRESSURE 9.10 BAR)</t>
+  </si>
+  <si>
+    <t>TANK CONTAINER (TANK - GASES, MINIMUM PRESSURE 22.00 BAR)</t>
+  </si>
+  <si>
+    <t>BULK CONTAINER (BULK - CLOSED)</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE CONT. (OPENING(S) AT ONE OR BOTH ENDS PLUS ?FULL? OPENING(S) ON ONE OR BOTH SIDES)</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE CONT.(UNVENTILATED GENERAL PURPOSE CONTAINER/DRY CONTAINER)</t>
+  </si>
+  <si>
+    <t>THERMAL INSULATED EXTERNAL CONTAINER</t>
+  </si>
+  <si>
+    <t>MINIMUM PRESSURE 255 KILOPASCAL (2.65 BAR, 38.43 POUNDS PER SQUARE INCH)</t>
+  </si>
+  <si>
+    <t>PRESSURIZED TANK CONTAINER: GAS TANK</t>
+  </si>
+  <si>
+    <t>PRESSURIZED TANK CONTAINER: LIQUID TANK DANGEROUS GOODS&gt;2,65 BARC AND&lt;= 10 BARC PRESSURE</t>
+  </si>
+  <si>
+    <t>FLAT WITH FIXED CORNER POSTS ONLY</t>
+  </si>
+  <si>
+    <t>FLAT (COLLAPSIBLE) (FLAT OR BOLTER - FOLDING COMPLETE END STRUCTURE)</t>
+  </si>
+  <si>
+    <t>OPEN SIDED CONTAINER</t>
+  </si>
+  <si>
+    <t>INTEGRAL REEFER CONTAINER</t>
+  </si>
+  <si>
+    <t>REEFER CONTAINER (INTEGRAL REEFER - MECHANICALLY REFRIGERATED AND HEATED)</t>
+  </si>
+  <si>
+    <t>NAMED CARGO CONTAINER (AUTOMOBILE CARRIER)</t>
+  </si>
+  <si>
+    <t>OPEN TOP CONTAINER</t>
+  </si>
+  <si>
+    <t>OPEN TOP CONTAINER (OPEN TOP - IDEM + REMOVABLE TOP MEMBERS IN END FRAMES)</t>
+  </si>
+  <si>
+    <t>VENTILATED CONTAINER (FANTAINER - NON-MECHANICAL, VENTS AT LOWER AND UPPER PARTS OF CARGO SPACE)</t>
+  </si>
+  <si>
+    <t>VENTILATED CONTAINER (FANTAINER - MECHANICAL VENTILATION SYSTEM LOCATED INTERNALLY)</t>
+  </si>
+  <si>
+    <t>GP-CONTAINER OVER-HEIGHT (GENERAL - OPENINGS AT ONE OR BOTH ENDS)</t>
+  </si>
+  <si>
+    <t>GP-CONTAINER OVER-HEIGHT (GENERAL - PASSIVE VENTS AT UPPER PART OF CARGO SPACE)</t>
+  </si>
+  <si>
+    <t>OPENINGS AT ONE OR BOTH END(S), PLUS 'FULL' OPENINGS AT ONE OR BOTH SIDES</t>
+  </si>
+  <si>
+    <t>INTEGRAL HIGH CUBE REEFER CONTAINER (9,6)</t>
+  </si>
+  <si>
+    <t>OPEN TOP - IDEM + REMOVABLE TOP MEMBERS IN END FRAMES</t>
+  </si>
+  <si>
+    <t>HALF HEIGHT TANK CONTAINER</t>
+  </si>
+  <si>
+    <t>PLATFORM FLAT</t>
+  </si>
+  <si>
+    <t>TANK FOR GAS (TANK - GASES, MINIMUM PRESSURE 22.00 BAR)</t>
+  </si>
+  <si>
+    <t>OPEN TOP (HALF HEIGHT) (OPEN TOP - IDEM + REMOVABLE TOP MEMBERS IN END FRAMES)</t>
+  </si>
+  <si>
+    <t>VE-HALF-HEIGHT =1448 MM HEIGHT (FANTAINER - NON-MECHANICAL, VENTS AT LOWER AND UPPER PARTS OF CARGO SPACE)</t>
+  </si>
+  <si>
+    <t>PLATFORM (FLAT OR BOLTER - PLAIN PLATFORM)</t>
+  </si>
+  <si>
+    <t>HIGH CUBE CONT. (WIDTH 2.5M) (GENERAL - OPENINGS AT ONE OR BOTH ENDS)</t>
+  </si>
+  <si>
+    <t>DRY BULK CONTAINER</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE CONTAINER WITHOUT VENTILATION: OPENING(S) AT ONE OR BOTH ENDS PLUS ?FULL? OPENING(S) ON ONE OR BOTH SIDES</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE CONTAINER WITHOUT VENTILATION: WITH BULK CAPABILITIES</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE / DRY CONTAINER</t>
+  </si>
+  <si>
+    <t>FLAT WITH CORNERS POSTS ONLY</t>
+  </si>
+  <si>
+    <t>REEFER CONT.(DIESEL GEN.) (INTEGRAL REEFER - SELF-POWERED MECHANICALLY REFRIGERATED AND HEATED)</t>
+  </si>
+  <si>
+    <t>HIGHLY VENTILATED CONTAINER</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE CONTAINER WITH VENTILATION</t>
+  </si>
+  <si>
+    <t>CLOSED, VENTED, PASSIVE VENTS AT UP</t>
+  </si>
+  <si>
+    <t>BULK CONTAINER (BULK - HORIZONTAL DISCHARGE, TEST PRESSURE 1.50 BAR)</t>
+  </si>
+  <si>
+    <t>HIGH CUBE CONT. (GENERAL - OPENINGS AT ONE OR BOTH ENDS)</t>
+  </si>
+  <si>
+    <t>PLATFORM WITH TWO COMPLETE, FIXED END WALLS</t>
+  </si>
+  <si>
+    <t>REEFER HIGHCUBE CONTAINER (INTEGRAL REEFER - MECHANICALLY REFRIGERATED AND HEATED)</t>
+  </si>
+  <si>
+    <t>OPEN-TOP CONTAINER: OPENING(S) AT ONE OR BOTH ENDS, PLUS REMOVABLE TOP MEMBER(S) IN END FRAMES</t>
+  </si>
+  <si>
+    <t>INSULATED CONTAINER (REFRIGERATED OR HEATED WITH REMOVABLE EQUIPMENT LOCATED EXTERNALLY; HEAT TRANSFER COEFFICIENT K=0.4W/M2.</t>
+  </si>
+  <si>
+    <t>PLATFORM WITH FOLDING COMPLETE END WALLS</t>
+  </si>
+  <si>
+    <t>HALF HEIGHT OPEN TOP CONTAINER</t>
+  </si>
+  <si>
+    <t>GP CONTAINER (WIDTH 2.5 M) (GENERAL - OPENINGS AT ONE OR BOTH ENDS)</t>
+  </si>
+  <si>
+    <t>40 FOOT HIGH CUBE DRY CONTAINER(UNVENTILATED GENERAL PURPOSE CONTAINER)</t>
+  </si>
+  <si>
+    <t>HIGH CUBE CONT. (GENERAL - PASSIVE VENTS AT UPPER PART OF CARGO SPACE)</t>
+  </si>
+  <si>
+    <t>OPENINGS AT ONE OR BOTH END(S)</t>
+  </si>
+  <si>
+    <t>HIGH CUBE REEFER CONTAINER (GENERAL - THERMAL CONTAINERS, REFRIGERATED AND HEATED-MECHANICALLY REFRIGERATED AND HEATED)</t>
+  </si>
+  <si>
+    <t>อัพเดทข้อมูลล่าสุด  27 ก.ค. 2564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -739,8 +748,13 @@
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +843,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1143,7 +1163,7 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.6"/>
@@ -1160,7 +1180,9 @@
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -1184,1321 +1206,1323 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>6</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" s="3" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A38" s="3" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A42" s="3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A48" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A53" s="3" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A54" s="3" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A55" s="3" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A56" s="3" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A57" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A58" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A59" s="3" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A60" s="3" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A61" s="3" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A62" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A63" s="3" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A64" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A67" s="3" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A68" s="3" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A70" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A71" s="3" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A72" s="3" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A73" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A74" s="3" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A75" s="3" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A76" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A77" s="3" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A78" s="3" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A79" s="3" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A80" s="3" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A81" s="3" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A82" s="3" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A83" s="3" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A84" s="3" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A85" s="3" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A86" s="3" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A87" s="3" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A88" s="3" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A89" s="3" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A90" s="3" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A91" s="3" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A92" s="3" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A93" s="3" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A94" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A95" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A96" s="3" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" s="3" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" s="3" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" s="3" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" s="3" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" s="3" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" s="3" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" s="3" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" s="3" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A105" s="3" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" s="3" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A107" s="3" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="3" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="3" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="3" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A111" s="3" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A112" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="C112" s="4" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" s="3" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" s="3" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" s="3" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" s="3" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" s="3" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" s="3" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" s="3" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" s="3" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" s="3" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" s="3" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C122" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" s="3"/>
@@ -2627,6 +2651,7 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="D1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
